--- a/zero-tpl/src/main/resources/plugin/tpl/oob/menu/BANNER-1005@zero.notify-TOP.xlsx
+++ b/zero-tpl/src/main/resources/plugin/tpl/oob/menu/BANNER-1005@zero.notify-TOP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-tpl/src/main/resources/plugin/tpl/oob/menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD60440C-8D61-2B49-B141-F3121E2A6DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E9544E-81DD-5043-8AD5-E7D7A7FBE5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-66560" yWindow="-5400" windowWidth="38780" windowHeight="12920" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -111,14 +111,17 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>站内信</t>
-  </si>
-  <si>
     <t>JSON:action/menu.extra/zero.extra.notify.json</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>notification</t>
+  </si>
+  <si>
+    <t>我的消息</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
 </sst>
 </file>
@@ -603,13 +606,13 @@
   <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -701,14 +704,14 @@
         <v>24</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -727,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>19</v>

--- a/zero-tpl/src/main/resources/plugin/tpl/oob/menu/BANNER-1005@zero.notify-TOP.xlsx
+++ b/zero-tpl/src/main/resources/plugin/tpl/oob/menu/BANNER-1005@zero.notify-TOP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-tpl/src/main/resources/plugin/tpl/oob/menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E9544E-81DD-5043-8AD5-E7D7A7FBE5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F9F462-A91A-1F43-83F0-6358D900B044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-66560" yWindow="-5400" windowWidth="38780" windowHeight="12920" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
